--- a/EMB/course.xlsx
+++ b/EMB/course.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagar\Documents\EMB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEM 5\SD Project\ExamManagementSystem\EMB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E53F4DD-6CBC-4DE3-8AE2-27DA39F4C14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562AD5F1-70B8-4973-BB5A-9157C97689C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{47918914-1B13-4719-873C-E9940AE9632D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{47918914-1B13-4719-873C-E9940AE9632D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="213">
   <si>
     <r>
       <rPr>
@@ -538,17 +538,40 @@
     <t>CSE501</t>
   </si>
   <si>
+    <t>CSE502</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Computer Security</t>
-    </r>
-  </si>
-  <si>
-    <t>CSE502</t>
+      <t>Data Mining</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CSE437</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Compiler Design</t>
+    </r>
+  </si>
+  <si>
+    <t>CSE503</t>
   </si>
   <si>
     <r>
@@ -557,31 +580,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Data Mining</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CSE437</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Compiler Design</t>
-    </r>
-  </si>
-  <si>
-    <t>CSE503</t>
+      <t>Entrepreneurship Practice</t>
+    </r>
+  </si>
+  <si>
+    <t>CSE504</t>
   </si>
   <si>
     <r>
@@ -590,11 +593,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Entrepreneurship Practice</t>
-    </r>
-  </si>
-  <si>
-    <t>CSE504</t>
+      <t>Functional and Non-Functional Testing</t>
+    </r>
+  </si>
+  <si>
+    <t>CSE505</t>
   </si>
   <si>
     <r>
@@ -603,11 +606,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Functional and Non-Functional Testing</t>
-    </r>
-  </si>
-  <si>
-    <t>CSE505</t>
+      <t>Genetic Algorithms &amp; Applications</t>
+    </r>
+  </si>
+  <si>
+    <t>CSE507</t>
   </si>
   <si>
     <r>
@@ -616,11 +619,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Genetic Algorithms &amp; Applications</t>
-    </r>
-  </si>
-  <si>
-    <t>CSE507</t>
+      <t>Information Retrieval and Web Search</t>
+    </r>
+  </si>
+  <si>
+    <t>CSE508</t>
   </si>
   <si>
     <r>
@@ -629,11 +632,37 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Information Retrieval and Web Search</t>
-    </r>
-  </si>
-  <si>
-    <t>CSE508</t>
+      <t>Introduction to Simulation &amp; Modeling</t>
+    </r>
+  </si>
+  <si>
+    <t>CSE509</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Graph Theory</t>
+    </r>
+  </si>
+  <si>
+    <t>CSE510</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Green Communication and Networking</t>
+    </r>
+  </si>
+  <si>
+    <t>CSE511</t>
   </si>
   <si>
     <r>
@@ -642,37 +671,239 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Introduction to Simulation &amp; Modeling</t>
-    </r>
-  </si>
-  <si>
-    <t>CSE509</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Graph Theory</t>
-    </r>
-  </si>
-  <si>
-    <t>CSE510</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Green Communication and Networking</t>
-    </r>
-  </si>
-  <si>
-    <t>CSE511</t>
+      <t>Real Time Systems</t>
+    </r>
+  </si>
+  <si>
+    <t>CSE512</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Active Directory</t>
+    </r>
+  </si>
+  <si>
+    <t>CSE513</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Algebra</t>
+    </r>
+  </si>
+  <si>
+    <t>CCE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ECE111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Analog Electronics</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ECE217</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Signals and Systems</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ECE214</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Digital Circuits and Systems</t>
+    </r>
+  </si>
+  <si>
+    <t>CSE227</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ECE327</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Control System Engineering</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ECE220</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Principles of Communication</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CSE328</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Artificial Intelligence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ECE325</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Digital Communication</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ECE326</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Digital Signal Processing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ECE334</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Internet of Things</t>
+    </r>
+  </si>
+  <si>
+    <t>CSE521</t>
+  </si>
+  <si>
+    <t>CSE522</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bio-Medical Engineering</t>
+    </r>
+  </si>
+  <si>
+    <t>CSE524</t>
   </si>
   <si>
     <r>
@@ -681,239 +912,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Real Time Systems</t>
-    </r>
-  </si>
-  <si>
-    <t>CSE512</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Active Directory</t>
-    </r>
-  </si>
-  <si>
-    <t>CSE513</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Algebra</t>
-    </r>
-  </si>
-  <si>
-    <t>CCE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ECE111</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Analog Electronics</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ECE217</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Signals and Systems</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ECE214</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Digital Circuits and Systems</t>
-    </r>
-  </si>
-  <si>
-    <t>CSE227</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ECE327</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Control System Engineering</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ECE220</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Principles of Communication</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CSE328</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Artificial Intelligence</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ECE325</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Digital Communication</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ECE326</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Digital Signal Processing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ECE334</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Internet of Things</t>
-    </r>
-  </si>
-  <si>
-    <t>CSE521</t>
-  </si>
-  <si>
-    <t>CSE522</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bio-Medical Engineering</t>
-    </r>
-  </si>
-  <si>
-    <t>CSE524</t>
+      <t>Cloud Computing</t>
+    </r>
+  </si>
+  <si>
+    <t>CSE525</t>
   </si>
   <si>
     <r>
@@ -922,11 +925,17 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Cloud Computing</t>
-    </r>
-  </si>
-  <si>
-    <t>CSE525</t>
+      <t>Computer Graphics</t>
+    </r>
+  </si>
+  <si>
+    <t>CSE526</t>
+  </si>
+  <si>
+    <t>CSE527</t>
+  </si>
+  <si>
+    <t>CSE528</t>
   </si>
   <si>
     <r>
@@ -935,17 +944,150 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Computer Graphics</t>
-    </r>
-  </si>
-  <si>
-    <t>CSE526</t>
-  </si>
-  <si>
-    <t>CSE527</t>
-  </si>
-  <si>
-    <t>CSE528</t>
+      <t>Information Retrieval</t>
+    </r>
+  </si>
+  <si>
+    <t>CSE529</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Physics of Material</t>
+    </r>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ECE113</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Network Analysis and Synthesis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ECE216</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Semiconductor Devices and Circuits</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ECE332</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Engineering Electromagnetics</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ECE221</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Microwave Engineering</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ECE224</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Introduction to VLSI</t>
+    </r>
+  </si>
+  <si>
+    <t>Economics for Engineers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ECE331</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Microprocessors &amp; Interfacing</t>
+    </r>
+  </si>
+  <si>
+    <t>ECE500</t>
   </si>
   <si>
     <r>
@@ -954,150 +1096,14 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Information Retrieval</t>
-    </r>
-  </si>
-  <si>
-    <t>CSE529</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Physics of Material</t>
-    </r>
-  </si>
-  <si>
-    <t>ECE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ECE113</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Network Analysis and Synthesis</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ECE216</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Semiconductor Devices and Circuits</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ECE332</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Engineering Electromagnetics</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ECE221</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Microwave Engineering</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ECE224</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Introduction to VLSI</t>
-    </r>
-  </si>
-  <si>
-    <t>Economics for Engineers</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ECE331</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Microprocessors &amp; Interfacing</t>
-    </r>
-  </si>
-  <si>
-    <t>ECE500</t>
+      <t>Advanced DSP</t>
+    </r>
+  </si>
+  <si>
+    <t>ECE501</t>
+  </si>
+  <si>
+    <t>ECE502</t>
   </si>
   <si>
     <r>
@@ -1106,14 +1112,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Advanced DSP</t>
-    </r>
-  </si>
-  <si>
-    <t>ECE501</t>
-  </si>
-  <si>
-    <t>ECE502</t>
+      <t>Analog VLSI Circuits</t>
+    </r>
+  </si>
+  <si>
+    <t>ECE503</t>
   </si>
   <si>
     <r>
@@ -1122,11 +1125,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Analog VLSI Circuits</t>
-    </r>
-  </si>
-  <si>
-    <t>ECE503</t>
+      <t>Antenna Engineering</t>
+    </r>
+  </si>
+  <si>
+    <t>ECE506</t>
   </si>
   <si>
     <r>
@@ -1135,11 +1138,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Antenna Engineering</t>
-    </r>
-  </si>
-  <si>
-    <t>ECE506</t>
+      <t>Design for Testability</t>
+    </r>
+  </si>
+  <si>
+    <t>ECE507</t>
   </si>
   <si>
     <r>
@@ -1148,11 +1151,24 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Design for Testability</t>
-    </r>
-  </si>
-  <si>
-    <t>ECE507</t>
+      <t>Digital Image Processing</t>
+    </r>
+  </si>
+  <si>
+    <t>ECE508</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Automotive Electronics</t>
+    </r>
+  </si>
+  <si>
+    <t>ECE509</t>
   </si>
   <si>
     <r>
@@ -1161,32 +1177,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Digital Image Processing</t>
-    </r>
-  </si>
-  <si>
-    <t>ECE508</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Automotive Electronics</t>
-    </r>
-  </si>
-  <si>
-    <t>ECE509</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Modeling and Simulation</t>
     </r>
   </si>
@@ -1651,6 +1641,12 @@
   </si>
   <si>
     <t>semester</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Web Security</t>
   </si>
 </sst>
 </file>
@@ -2077,31 +2073,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19ACC03C-AFDB-42B2-A3BD-40D7DF5953B3}">
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="32" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="50.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
     <col min="3" max="5" width="32" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="9" customFormat="1">
       <c r="A1" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2495,7 +2491,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.75" customHeight="1">
+    <row r="25" spans="1:5" ht="16.8" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -2568,7 +2564,7 @@
         <v>57</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>2</v>
@@ -2582,10 +2578,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>2</v>
@@ -2599,10 +2595,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>2</v>
@@ -2616,10 +2612,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>2</v>
@@ -2633,10 +2629,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>2</v>
@@ -2650,10 +2646,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>2</v>
@@ -2667,10 +2663,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>2</v>
@@ -2684,10 +2680,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>2</v>
@@ -2701,10 +2697,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>2</v>
@@ -2718,10 +2714,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>2</v>
@@ -2735,10 +2731,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>2</v>
@@ -2752,10 +2748,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>2</v>
@@ -2769,10 +2765,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>2</v>
@@ -2792,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" s="11">
         <v>1</v>
@@ -2809,7 +2805,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D43" s="11">
         <v>1</v>
@@ -2826,7 +2822,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" s="11">
         <v>1</v>
@@ -2843,7 +2839,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" s="11">
         <v>1</v>
@@ -2860,7 +2856,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D46" s="11">
         <v>1</v>
@@ -2877,7 +2873,7 @@
         <v>13</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D47" s="11">
         <v>1</v>
@@ -2894,7 +2890,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D48" s="11">
         <v>1</v>
@@ -2911,7 +2907,7 @@
         <v>20</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" s="11">
         <v>1</v>
@@ -2928,7 +2924,7 @@
         <v>18</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D50" s="11">
         <v>1</v>
@@ -2939,13 +2935,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C51" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D51" s="11">
         <v>1</v>
@@ -2962,7 +2958,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D52" s="11">
         <v>1</v>
@@ -2979,7 +2975,7 @@
         <v>26</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D53" s="11">
         <v>2</v>
@@ -2996,7 +2992,7 @@
         <v>30</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D54" s="11">
         <v>2</v>
@@ -3013,7 +3009,7 @@
         <v>32</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D55" s="11">
         <v>2</v>
@@ -3024,13 +3020,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C56" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D56" s="11">
         <v>2</v>
@@ -3041,13 +3037,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C57" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D57" s="11">
         <v>2</v>
@@ -3058,13 +3054,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D58" s="11">
         <v>2</v>
@@ -3081,7 +3077,7 @@
         <v>42</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D59" s="11">
         <v>2</v>
@@ -3098,7 +3094,7 @@
         <v>46</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -3109,13 +3105,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C61" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D61" s="11">
         <v>2</v>
@@ -3126,13 +3122,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C62" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D62" s="11">
         <v>2</v>
@@ -3149,7 +3145,7 @@
         <v>40</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D63" s="11">
         <v>2</v>
@@ -3166,7 +3162,7 @@
         <v>38</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D64" s="11">
         <v>3</v>
@@ -3183,7 +3179,7 @@
         <v>54</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D65" s="11">
         <v>3</v>
@@ -3194,13 +3190,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C66" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D66" s="11">
         <v>3</v>
@@ -3211,13 +3207,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C67" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D67" s="11">
         <v>3</v>
@@ -3228,13 +3224,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C68" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D68" s="11">
         <v>3</v>
@@ -3251,7 +3247,7 @@
         <v>56</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" s="11">
         <v>3</v>
@@ -3268,7 +3264,7 @@
         <v>48</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D70" s="11">
         <v>3</v>
@@ -3279,13 +3275,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C71" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D71" s="11">
         <v>3</v>
@@ -3296,13 +3292,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D72" s="11">
         <v>3</v>
@@ -3313,13 +3309,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C73" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D73" s="11">
         <v>3</v>
@@ -3330,13 +3326,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="C74" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D74" s="11">
         <v>4</v>
@@ -3347,13 +3343,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="C75" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D75" s="11">
         <v>4</v>
@@ -3364,13 +3360,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D76" s="11">
         <v>4</v>
@@ -3381,13 +3377,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="D77" s="11">
         <v>4</v>
@@ -3398,13 +3394,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="C78" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D78" s="11">
         <v>4</v>
@@ -3415,13 +3411,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C79" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D79" s="11">
         <v>4</v>
@@ -3438,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D80" s="11">
         <v>1</v>
@@ -3455,7 +3451,7 @@
         <v>5</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D81" s="11">
         <v>1</v>
@@ -3472,7 +3468,7 @@
         <v>7</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D82" s="11">
         <v>1</v>
@@ -3489,7 +3485,7 @@
         <v>9</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D83" s="11">
         <v>1</v>
@@ -3506,7 +3502,7 @@
         <v>11</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D84" s="11">
         <v>1</v>
@@ -3523,7 +3519,7 @@
         <v>13</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D85" s="11">
         <v>1</v>
@@ -3540,7 +3536,7 @@
         <v>16</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D86" s="11">
         <v>1</v>
@@ -3551,13 +3547,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="C87" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D87" s="11">
         <v>1</v>
@@ -3574,7 +3570,7 @@
         <v>20</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D88" s="11">
         <v>1</v>
@@ -3591,7 +3587,7 @@
         <v>18</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D89" s="11">
         <v>1</v>
@@ -3602,13 +3598,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C90" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D90" s="11">
         <v>1</v>
@@ -3625,7 +3621,7 @@
         <v>26</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D91" s="11">
         <v>2</v>
@@ -3636,13 +3632,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="C92" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D92" s="11">
         <v>2</v>
@@ -3653,13 +3649,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C93" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D93" s="11">
         <v>2</v>
@@ -3670,13 +3666,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="C94" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D94" s="11">
         <v>2</v>
@@ -3687,13 +3683,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C95" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D95" s="11">
         <v>2</v>
@@ -3710,7 +3706,7 @@
         <v>40</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D96" s="11">
         <v>2</v>
@@ -3721,13 +3717,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C97" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D97" s="11">
         <v>2</v>
@@ -3738,13 +3734,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C98" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D98" s="11">
         <v>2</v>
@@ -3755,13 +3751,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="C99" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D99" s="11">
         <v>2</v>
@@ -3772,13 +3768,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C100" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D100" s="11">
         <v>2</v>
@@ -3792,10 +3788,10 @@
         <v>27</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D101" s="11">
         <v>3</v>
@@ -3806,13 +3802,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C102" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D102" s="11">
         <v>3</v>
@@ -3823,13 +3819,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="C103" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D103" s="11">
         <v>3</v>
@@ -3840,13 +3836,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C104" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D104" s="11">
         <v>3</v>
@@ -3857,13 +3853,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="C105" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D105" s="11">
         <v>3</v>
@@ -3880,7 +3876,7 @@
         <v>38</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D106" s="11">
         <v>3</v>
@@ -3897,7 +3893,7 @@
         <v>48</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D107" s="11">
         <v>3</v>
@@ -3908,13 +3904,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D108" s="11">
         <v>3</v>
@@ -3925,13 +3921,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="C109" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D109" s="11">
         <v>3</v>
@@ -3942,13 +3938,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="C110" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D110" s="11">
         <v>3</v>
@@ -3959,13 +3955,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="C111" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D111" s="11">
         <v>4</v>
@@ -3976,13 +3972,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="C112" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D112" s="11">
         <v>4</v>
@@ -3993,13 +3989,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C113" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D113" s="11">
         <v>4</v>
@@ -4010,13 +4006,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="C114" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D114" s="11">
         <v>4</v>
@@ -4027,13 +4023,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="C115" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D115" s="11">
         <v>4</v>
@@ -4044,13 +4040,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C116" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D116" s="11">
         <v>4</v>
@@ -4067,7 +4063,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D117" s="11">
         <v>1</v>
@@ -4084,7 +4080,7 @@
         <v>5</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D118" s="11">
         <v>1</v>
@@ -4101,7 +4097,7 @@
         <v>7</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D119" s="11">
         <v>1</v>
@@ -4118,7 +4114,7 @@
         <v>9</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D120" s="11">
         <v>1</v>
@@ -4135,7 +4131,7 @@
         <v>11</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D121" s="11">
         <v>1</v>
@@ -4146,13 +4142,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="C122" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D122" s="11">
         <v>1</v>
@@ -4169,7 +4165,7 @@
         <v>13</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D123" s="11">
         <v>1</v>
@@ -4186,7 +4182,7 @@
         <v>16</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D124" s="11">
         <v>1</v>
@@ -4203,7 +4199,7 @@
         <v>20</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D125" s="11">
         <v>1</v>
@@ -4217,10 +4213,10 @@
         <v>17</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D126" s="11">
         <v>1</v>
@@ -4231,13 +4227,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="C127" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D127" s="11">
         <v>1</v>
@@ -4254,7 +4250,7 @@
         <v>26</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D128" s="11">
         <v>2</v>
@@ -4265,13 +4261,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B129" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="C129" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D129" s="11">
         <v>2</v>
@@ -4282,13 +4278,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B130" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="C130" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D130" s="11">
         <v>2</v>
@@ -4299,13 +4295,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B131" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="C131" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D131" s="11">
         <v>2</v>
@@ -4316,13 +4312,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B132" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="C132" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D132" s="11">
         <v>2</v>
@@ -4333,13 +4329,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B133" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="C133" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D133" s="11">
         <v>2</v>
@@ -4350,13 +4346,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B134" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B134" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="C134" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D134" s="11">
         <v>2</v>
@@ -4367,13 +4363,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B135" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="C135" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D135" s="11">
         <v>2</v>
@@ -4384,13 +4380,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B136" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="C136" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D136" s="11">
         <v>2</v>
@@ -4401,13 +4397,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B137" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="C137" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D137" s="11">
         <v>2</v>
@@ -4418,13 +4414,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B138" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="C138" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D138" s="11">
         <v>2</v>
@@ -4435,13 +4431,13 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B139" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="C139" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D139" s="11">
         <v>2</v>
@@ -4452,13 +4448,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B140" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B140" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="C140" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D140" s="11">
         <v>3</v>
@@ -4469,13 +4465,13 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B141" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="C141" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D141" s="11">
         <v>3</v>
@@ -4486,13 +4482,13 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B142" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="C142" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D142" s="11">
         <v>3</v>
@@ -4503,13 +4499,13 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B143" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="C143" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D143" s="11">
         <v>3</v>
@@ -4518,15 +4514,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="28">
+    <row r="144" spans="1:5" ht="27.6">
       <c r="A144" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D144" s="11">
         <v>3</v>
@@ -4537,13 +4533,13 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B145" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="C145" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D145" s="11">
         <v>3</v>
@@ -4554,13 +4550,13 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B146" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="C146" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D146" s="11">
         <v>3</v>
@@ -4571,13 +4567,13 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B147" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="C147" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D147" s="11">
         <v>3</v>
@@ -4586,15 +4582,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="28">
+    <row r="148" spans="1:5" ht="27.6">
       <c r="A148" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D148" s="11">
         <v>3</v>
@@ -4605,13 +4601,13 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B149" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="C149" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D149" s="11">
         <v>4</v>
@@ -4622,13 +4618,13 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B150" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="C150" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D150" s="11">
         <v>4</v>
@@ -4639,13 +4635,13 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B151" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="C151" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D151" s="11">
         <v>4</v>
@@ -4656,13 +4652,13 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B152" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="C152" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D152" s="11">
         <v>4</v>
@@ -4673,13 +4669,13 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B153" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B153" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="C153" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D153" s="11">
         <v>4</v>
@@ -4690,13 +4686,13 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B154" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="C154" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D154" s="11">
         <v>4</v>
@@ -4707,13 +4703,13 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="C155" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D155" s="11">
         <v>4</v>
